--- a/Eficiencia.xlsx
+++ b/Eficiencia.xlsx
@@ -20,14 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t xml:space="preserve">Multiplicacion matriz vector</t>
   </si>
   <si>
+    <t xml:space="preserve">8000000x8</t>
+  </si>
+  <si>
     <t xml:space="preserve">8000x8000</t>
   </si>
   <si>
+    <t xml:space="preserve">8x8000000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Threads</t>
   </si>
   <si>
@@ -35,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Eficiencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eficioencia</t>
   </si>
 </sst>
 </file>
@@ -49,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,9 +118,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -134,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -152,20 +166,40 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -173,10 +207,24 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>11.03535</v>
+        <v>12.18387</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">B5/(B5*A5)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>11.03535</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">D5/(D5*A5)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>11.28217</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">F5/(F5*A5)</f>
         <v>1</v>
       </c>
     </row>
@@ -185,11 +233,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5.556075</v>
+        <v>6.033405</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">B5/(B6*A6)</f>
+        <v>1.00970098973962</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5.556075</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">D5/(D6*A6)</f>
         <v>0.993088646211579</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5.717485</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">F5/(F6*A6)</f>
+        <v>0.986637481340135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -197,17 +259,33 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3.05739</v>
+        <v>2.384158</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">B5/(B7*A7)</f>
+        <v>1.27758625896438</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3.05739</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">D5/(D7*A7)</f>
         <v>0.902350534279238</v>
       </c>
+      <c r="F7" s="0" t="n">
+        <v>1.467923</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">F5/(F7*A7)</f>
+        <v>1.92145126140813</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
